--- a/pcb/bom/bom.xlsx
+++ b/pcb/bom/bom.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
   <si>
     <t>Qty</t>
   </si>
@@ -61,6 +61,9 @@
     <t>R1, R2, R4</t>
   </si>
   <si>
+    <t>R3</t>
+  </si>
+  <si>
     <t>RV1, RV2</t>
   </si>
   <si>
@@ -97,6 +100,9 @@
     <t>1KΩ</t>
   </si>
   <si>
+    <t>10KΩ</t>
+  </si>
+  <si>
     <t>Potentiometer</t>
   </si>
   <si>
@@ -110,6 +116,9 @@
   </si>
   <si>
     <t>https://www.digikey.com/en/products/detail/nexperia-usa-inc/PBSS4350SS115/1692852?s=N4IgTCBcDaIAoCEDKSAsBmArABhQGgEYDMQBdAXyAhttps://assets.nexperia.com/documents/data-sheet/BC846BPN.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/bourns-inc/PTV111-3415A-A103/3780838?s=N4IgTCBcDaIAoBUBqBGNBaAzAFhQVgEF0CUAGTdAOQBEQBdAXyA</t>
   </si>
   <si>
     <t>https://www.espressif.com/sites/default/files/documentation/esp32-wroom-32d_esp32-wroom-32u_datasheet_en.pdf</t>
@@ -486,7 +495,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -517,13 +526,13 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -534,10 +543,10 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -548,10 +557,10 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -562,10 +571,10 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -576,10 +585,10 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -590,10 +599,10 @@
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -604,41 +613,44 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -649,10 +661,24 @@
         <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -660,6 +686,7 @@
     <hyperlink ref="E7" r:id="rId1"/>
     <hyperlink ref="E10" r:id="rId2"/>
     <hyperlink ref="E11" r:id="rId3"/>
+    <hyperlink ref="E12" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
